--- a/docs/deliverable2/Getana_Deliverable_2_ProductBacklog.xlsx
+++ b/docs/deliverable2/Getana_Deliverable_2_ProductBacklog.xlsx
@@ -264,7 +264,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -312,6 +312,13 @@
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -448,7 +455,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1210,7 +1217,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1353,7 +1360,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -1373,7 +1380,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>

--- a/docs/deliverable2/Getana_Deliverable_2_ProductBacklog.xlsx
+++ b/docs/deliverable2/Getana_Deliverable_2_ProductBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodywilliams/Repositories/RaiderNAV/docs/deliverable2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1E7271-A8B9-B642-A482-4D2D628EB265}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A46B5E-C31F-5B4A-9AB0-37D98C1B231F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 2" sheetId="1" r:id="rId1"/>
@@ -253,9 +253,6 @@
     <t>M, 8</t>
   </si>
   <si>
-    <t>As a user, I want to be able to name each schedule myself, so that they are customized to my needs.</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -278,6 +275,9 @@
   </si>
   <si>
     <t>M,28</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to name each schedule myself, so that I am able to more easily distinguish between them.</t>
   </si>
 </sst>
 </file>
@@ -794,7 +794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="117" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="117" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
@@ -1312,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="188" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1376,7 +1376,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -1396,7 +1396,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -1416,7 +1416,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -1424,19 +1424,19 @@
     </row>
     <row r="11" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1816,7 +1816,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>21</v>
@@ -1839,7 +1839,7 @@
         <v>35</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>21</v>
@@ -1862,7 +1862,7 @@
         <v>35</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>21</v>
@@ -1885,7 +1885,7 @@
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>21</v>
@@ -1908,7 +1908,7 @@
         <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>21</v>
@@ -1931,7 +1931,7 @@
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>21</v>
